--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N2">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O2">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P2">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q2">
-        <v>393.0250388147807</v>
+        <v>443.8905212489537</v>
       </c>
       <c r="R2">
-        <v>3537.225349333026</v>
+        <v>3995.014691240583</v>
       </c>
       <c r="S2">
-        <v>0.3688808638971192</v>
+        <v>0.3634606590101538</v>
       </c>
       <c r="T2">
-        <v>0.3688808638971192</v>
+        <v>0.3634606590101538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.434749</v>
       </c>
       <c r="O3">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P3">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q3">
-        <v>79.10695146313356</v>
+        <v>73.56460468053922</v>
       </c>
       <c r="R3">
-        <v>711.962563168202</v>
+        <v>662.081442124853</v>
       </c>
       <c r="S3">
-        <v>0.07424728125207364</v>
+        <v>0.06023521210090101</v>
       </c>
       <c r="T3">
-        <v>0.07424728125207365</v>
+        <v>0.060235212100901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N4">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q4">
-        <v>0.1345592796415556</v>
+        <v>22.89273629753166</v>
       </c>
       <c r="R4">
-        <v>1.211033516774</v>
+        <v>206.034626677785</v>
       </c>
       <c r="S4">
-        <v>0.0001262930816551436</v>
+        <v>0.01874473236742074</v>
       </c>
       <c r="T4">
-        <v>0.0001262930816551435</v>
+        <v>0.01874473236742074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.712432666666666</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H5">
-        <v>29.137298</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I5">
-        <v>0.4639063029983291</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J5">
-        <v>0.463906302998329</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.265506666666667</v>
+        <v>49.146613</v>
       </c>
       <c r="N5">
-        <v>6.79652</v>
+        <v>147.439839</v>
       </c>
       <c r="O5">
-        <v>0.04451731876459429</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P5">
-        <v>0.0445173187645943</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q5">
-        <v>22.00358095588444</v>
+        <v>448.458174696765</v>
       </c>
       <c r="R5">
-        <v>198.03222860296</v>
+        <v>4036.123572270884</v>
       </c>
       <c r="S5">
-        <v>0.02065186476748108</v>
+        <v>0.3672006855545377</v>
       </c>
       <c r="T5">
-        <v>0.02065186476748108</v>
+        <v>0.3672006855545377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J6">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.466179</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N6">
-        <v>121.398537</v>
+        <v>24.434749</v>
       </c>
       <c r="O6">
-        <v>0.7951624315361971</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P6">
-        <v>0.7951624315361973</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q6">
-        <v>369.250039087995</v>
+        <v>74.32158777461498</v>
       </c>
       <c r="R6">
-        <v>3323.250351791954</v>
+        <v>668.8942899715348</v>
       </c>
       <c r="S6">
-        <v>0.3465664015289759</v>
+        <v>0.06085503514523679</v>
       </c>
       <c r="T6">
-        <v>0.3465664015289759</v>
+        <v>0.06085503514523678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.144916333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N7">
-        <v>24.434749</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O7">
-        <v>0.1600480113596151</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P7">
-        <v>0.1600480113596152</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q7">
-        <v>74.32158777461498</v>
+        <v>23.12830358467499</v>
       </c>
       <c r="R7">
-        <v>668.8942899715348</v>
+        <v>208.1547322620749</v>
       </c>
       <c r="S7">
-        <v>0.06975589032999417</v>
+        <v>0.01893761650737815</v>
       </c>
       <c r="T7">
-        <v>0.06975589032999419</v>
+        <v>0.01893761650737815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>9.124904999999998</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H8">
-        <v>27.37471499999999</v>
+        <v>0.790705</v>
       </c>
       <c r="I8">
-        <v>0.4358435305594535</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J8">
-        <v>0.4358435305594534</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01385433333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N8">
-        <v>0.041563</v>
+        <v>147.439839</v>
       </c>
       <c r="O8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q8">
-        <v>0.126419475505</v>
+        <v>12.95349087738833</v>
       </c>
       <c r="R8">
-        <v>1.137775279545</v>
+        <v>116.581417896495</v>
       </c>
       <c r="S8">
-        <v>0.0001186533190819987</v>
+        <v>0.01060640879992361</v>
       </c>
       <c r="T8">
-        <v>0.0001186533190819987</v>
+        <v>0.01060640879992361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>9.124904999999998</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H9">
-        <v>27.37471499999999</v>
+        <v>0.790705</v>
       </c>
       <c r="I9">
-        <v>0.4358435305594535</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J9">
-        <v>0.4358435305594534</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.265506666666667</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N9">
-        <v>6.79652</v>
+        <v>24.434749</v>
       </c>
       <c r="O9">
-        <v>0.04451731876459429</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P9">
-        <v>0.0445173187645943</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q9">
-        <v>20.6725331102</v>
+        <v>2.146742023116111</v>
       </c>
       <c r="R9">
-        <v>186.0527979918</v>
+        <v>19.320678208045</v>
       </c>
       <c r="S9">
-        <v>0.01940258538140138</v>
+        <v>0.00175776736176119</v>
       </c>
       <c r="T9">
-        <v>0.01940258538140138</v>
+        <v>0.001757767361761189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H10">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I10">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J10">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.466179</v>
+        <v>2.534635</v>
       </c>
       <c r="N10">
-        <v>121.398537</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O10">
-        <v>0.7951624315361971</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P10">
-        <v>0.7951624315361973</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q10">
-        <v>12.875690698936</v>
+        <v>0.6680495225583333</v>
       </c>
       <c r="R10">
-        <v>115.881216290424</v>
+        <v>6.012445703025</v>
       </c>
       <c r="S10">
-        <v>0.01208471583036708</v>
+        <v>0.0005470036148491936</v>
       </c>
       <c r="T10">
-        <v>0.01208471583036708</v>
+        <v>0.0005470036148491935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.318184</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H11">
-        <v>0.9545520000000001</v>
+        <v>5.428808</v>
       </c>
       <c r="I11">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J11">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.144916333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N11">
-        <v>24.434749</v>
+        <v>147.439839</v>
       </c>
       <c r="O11">
-        <v>0.1600480113596151</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P11">
-        <v>0.1600480113596152</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q11">
-        <v>2.591582058605333</v>
+        <v>88.93584194243468</v>
       </c>
       <c r="R11">
-        <v>23.324238527448</v>
+        <v>800.4225774819121</v>
       </c>
       <c r="S11">
-        <v>0.002432376907897548</v>
+        <v>0.07282128852643614</v>
       </c>
       <c r="T11">
-        <v>0.002432376907897548</v>
+        <v>0.07282128852643611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.318184</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H12">
-        <v>0.9545520000000001</v>
+        <v>5.428808</v>
       </c>
       <c r="I12">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J12">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01385433333333333</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N12">
-        <v>0.041563</v>
+        <v>24.434749</v>
       </c>
       <c r="O12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q12">
-        <v>0.004408227197333334</v>
+        <v>14.73906231657689</v>
       </c>
       <c r="R12">
-        <v>0.03967404477600001</v>
+        <v>132.651560849192</v>
       </c>
       <c r="S12">
-        <v>4.137422546183953E-06</v>
+        <v>0.01206844716508438</v>
       </c>
       <c r="T12">
-        <v>4.137422546183952E-06</v>
+        <v>0.01206844716508437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.318184</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H13">
-        <v>0.9545520000000001</v>
+        <v>5.428808</v>
       </c>
       <c r="I13">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J13">
-        <v>0.01519779525677573</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.265506666666667</v>
+        <v>2.534635</v>
       </c>
       <c r="N13">
-        <v>6.79652</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O13">
-        <v>0.04451731876459429</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P13">
-        <v>0.0445173187645943</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q13">
-        <v>0.7208479732266667</v>
+        <v>4.586682255026666</v>
       </c>
       <c r="R13">
-        <v>6.487631759040001</v>
+        <v>41.28014029524</v>
       </c>
       <c r="S13">
-        <v>0.0006765650959649245</v>
+        <v>0.003755607464632475</v>
       </c>
       <c r="T13">
-        <v>0.0006765650959649245</v>
+        <v>0.003755607464632474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.427651</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H14">
-        <v>4.282953</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I14">
-        <v>0.06819056770966213</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J14">
-        <v>0.06819056770966211</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N14">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O14">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P14">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q14">
-        <v>57.77158091552901</v>
+        <v>9.039061445164334</v>
       </c>
       <c r="R14">
-        <v>519.9442282397611</v>
+        <v>81.35155300647901</v>
       </c>
       <c r="S14">
-        <v>0.05422257762784863</v>
+        <v>0.007401246641736996</v>
       </c>
       <c r="T14">
-        <v>0.05422257762784862</v>
+        <v>0.007401246641736994</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.427651</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H15">
-        <v>4.282953</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I15">
-        <v>0.06819056770966213</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J15">
-        <v>0.06819056770966211</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>24.434749</v>
       </c>
       <c r="O15">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P15">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q15">
-        <v>11.62809794819967</v>
+        <v>1.498015726998778</v>
       </c>
       <c r="R15">
-        <v>104.652881533797</v>
+        <v>13.482141542989</v>
       </c>
       <c r="S15">
-        <v>0.01091376475541461</v>
+        <v>0.001226585739678788</v>
       </c>
       <c r="T15">
-        <v>0.01091376475541461</v>
+        <v>0.001226585739678787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.427651</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H16">
-        <v>4.282953</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I16">
-        <v>0.06819056770966213</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J16">
-        <v>0.06819056770966211</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N16">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O16">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P16">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q16">
-        <v>0.01977915283766667</v>
+        <v>0.4661709140783333</v>
       </c>
       <c r="R16">
-        <v>0.178012375539</v>
+        <v>4.195538226705</v>
       </c>
       <c r="S16">
-        <v>1.85640869292047E-05</v>
+        <v>0.0003817040002691344</v>
       </c>
       <c r="T16">
-        <v>1.856408692920469E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.427651</v>
-      </c>
-      <c r="H17">
-        <v>4.282953</v>
-      </c>
-      <c r="I17">
-        <v>0.06819056770966213</v>
-      </c>
-      <c r="J17">
-        <v>0.06819056770966211</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.265506666666667</v>
-      </c>
-      <c r="N17">
-        <v>6.79652</v>
-      </c>
-      <c r="O17">
-        <v>0.04451731876459429</v>
-      </c>
-      <c r="P17">
-        <v>0.0445173187645943</v>
-      </c>
-      <c r="Q17">
-        <v>3.234352858173333</v>
-      </c>
-      <c r="R17">
-        <v>29.10917572356</v>
-      </c>
-      <c r="S17">
-        <v>0.00303566123946968</v>
-      </c>
-      <c r="T17">
-        <v>0.003035661239469679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.353022</v>
-      </c>
-      <c r="H18">
-        <v>1.059066</v>
-      </c>
-      <c r="I18">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J18">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>40.466179</v>
-      </c>
-      <c r="N18">
-        <v>121.398537</v>
-      </c>
-      <c r="O18">
-        <v>0.7951624315361971</v>
-      </c>
-      <c r="P18">
-        <v>0.7951624315361973</v>
-      </c>
-      <c r="Q18">
-        <v>14.285451442938</v>
-      </c>
-      <c r="R18">
-        <v>128.569062986442</v>
-      </c>
-      <c r="S18">
-        <v>0.01340787265188647</v>
-      </c>
-      <c r="T18">
-        <v>0.01340787265188647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.353022</v>
-      </c>
-      <c r="H19">
-        <v>1.059066</v>
-      </c>
-      <c r="I19">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J19">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.144916333333333</v>
-      </c>
-      <c r="N19">
-        <v>24.434749</v>
-      </c>
-      <c r="O19">
-        <v>0.1600480113596151</v>
-      </c>
-      <c r="P19">
-        <v>0.1600480113596152</v>
-      </c>
-      <c r="Q19">
-        <v>2.875334653826</v>
-      </c>
-      <c r="R19">
-        <v>25.878011884434</v>
-      </c>
-      <c r="S19">
-        <v>0.002698698114235185</v>
-      </c>
-      <c r="T19">
-        <v>0.002698698114235185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.353022</v>
-      </c>
-      <c r="H20">
-        <v>1.059066</v>
-      </c>
-      <c r="I20">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J20">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.01385433333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.041563</v>
-      </c>
-      <c r="O20">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="P20">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="Q20">
-        <v>0.004890884462000001</v>
-      </c>
-      <c r="R20">
-        <v>0.044017960158</v>
-      </c>
-      <c r="S20">
-        <v>4.590429380795236E-06</v>
-      </c>
-      <c r="T20">
-        <v>4.590429380795236E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.353022</v>
-      </c>
-      <c r="H21">
-        <v>1.059066</v>
-      </c>
-      <c r="I21">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J21">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.265506666666667</v>
-      </c>
-      <c r="N21">
-        <v>6.79652</v>
-      </c>
-      <c r="O21">
-        <v>0.04451731876459429</v>
-      </c>
-      <c r="P21">
-        <v>0.0445173187645943</v>
-      </c>
-      <c r="Q21">
-        <v>0.79977369448</v>
-      </c>
-      <c r="R21">
-        <v>7.197963250320001</v>
-      </c>
-      <c r="S21">
-        <v>0.0007506422802772282</v>
-      </c>
-      <c r="T21">
-        <v>0.0007506422802772281</v>
+        <v>0.0003817040002691344</v>
       </c>
     </row>
   </sheetData>
